--- a/schedules/PPSV.xlsx
+++ b/schedules/PPSV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>0 days</t>
+  </si>
+  <si>
+    <t>PCV13 and PPVS for 65+</t>
   </si>
 </sst>
 </file>
@@ -865,7 +868,7 @@
   <dimension ref="B1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -892,6 +895,9 @@
       <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1694,11 +1700,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="G5:K5"/>
@@ -1706,6 +1707,11 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
